--- a/screen.xlsx
+++ b/screen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\CNC_dividing_head\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655AB705-3F5D-4905-AA7C-8197571FE492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7E5612-06A9-4022-BA47-B36B36E863B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{81485BE0-4FC2-4F8C-A7B1-B0057AD691FB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{81485BE0-4FC2-4F8C-A7B1-B0057AD691FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
-  <si>
-    <t>Z</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="82">
   <si>
     <t>a</t>
   </si>
@@ -57,9 +54,6 @@
     <t>:</t>
   </si>
   <si>
-    <t>g</t>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
@@ -72,9 +66,6 @@
     <t>tooth</t>
   </si>
   <si>
-    <t>2-360</t>
-  </si>
-  <si>
     <t>360-импульсов на оборот</t>
   </si>
   <si>
@@ -93,9 +84,6 @@
     <t>s</t>
   </si>
   <si>
-    <t>p-s</t>
-  </si>
-  <si>
     <t>пуск или настройки</t>
   </si>
   <si>
@@ -109,6 +97,189 @@
   </si>
   <si>
     <t>вверх вниз перемещают курсор (с переходом на второй экран)</t>
+  </si>
+  <si>
+    <t>zadanie</t>
+  </si>
+  <si>
+    <t>2-255</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>D_i</t>
+  </si>
+  <si>
+    <t>Dir_inverse</t>
+  </si>
+  <si>
+    <t>M1_P</t>
+  </si>
+  <si>
+    <t>M1 pulses per rpm</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>m1:L</t>
+  </si>
+  <si>
+    <t>left or right</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCP ждать или нет </t>
+  </si>
+  <si>
+    <t>m1_M</t>
+  </si>
+  <si>
+    <t>max speed</t>
+  </si>
+  <si>
+    <t>тут тестирование может сделаю в будущем, так-то просто вобьем константу</t>
+  </si>
+  <si>
+    <t>40*50*36</t>
+  </si>
+  <si>
+    <t>импульсов на оборот, для удг формула =передаточноеУДГ*передаточноеМ*числоимп_энк  далее делим на число зубов</t>
+  </si>
+  <si>
+    <t>индикация</t>
+  </si>
+  <si>
+    <t>туда сюда</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>StDiEn</t>
+  </si>
+  <si>
+    <t>Step, Dir, En inverse</t>
+  </si>
+  <si>
+    <t>RCP ждать или нет? 0 не ждать, 1 ждать еденицу, 2 ждать нолик (инверсия)</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Запущен</t>
+  </si>
+  <si>
+    <t>enter_ прерывает процесс</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>первый концевик</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S2 </t>
+  </si>
+  <si>
+    <t>Второй концевик</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>М1 держит позицию</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>М2 держит позицию</t>
+  </si>
+  <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>текущий мотор</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Bl</t>
+  </si>
+  <si>
+    <t>подсветка экрана вкл</t>
   </si>
 </sst>
 </file>
@@ -133,7 +304,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -203,11 +374,130 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -215,6 +505,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -529,20 +832,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE51753-6362-42E1-858B-3262C08793D0}">
-  <dimension ref="C5:Z21"/>
+  <dimension ref="B4:Z37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z22" sqref="Z22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="18" width="2.7109375" customWidth="1"/>
-    <col min="24" max="24" width="26.28515625" customWidth="1"/>
-    <col min="26" max="26" width="60.28515625" customWidth="1"/>
+    <col min="3" max="12" width="2.6640625" customWidth="1"/>
+    <col min="13" max="13" width="3" customWidth="1"/>
+    <col min="14" max="14" width="3.109375" customWidth="1"/>
+    <col min="15" max="15" width="3.21875" customWidth="1"/>
+    <col min="16" max="16" width="3" customWidth="1"/>
+    <col min="17" max="17" width="3.21875" customWidth="1"/>
+    <col min="18" max="18" width="3.109375" customWidth="1"/>
+    <col min="24" max="24" width="68.21875" customWidth="1"/>
+    <col min="26" max="26" width="60.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="V4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>0</v>
       </c>
@@ -592,331 +909,1079 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="X6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="8">
+        <v>3</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" s="8">
+        <v>1</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="8">
+        <v>9</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>9</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="V7" t="s">
+        <v>9</v>
+      </c>
+      <c r="W7" t="s">
+        <v>22</v>
+      </c>
+      <c r="X7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="11">
+        <v>2</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="11">
+        <v>9</v>
+      </c>
+      <c r="G8" s="11">
+        <v>9</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="11">
+        <v>2</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="11">
+        <v>9</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>9</v>
+      </c>
+      <c r="R8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="V8" t="s">
+        <v>27</v>
+      </c>
+      <c r="W8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z8" t="s">
         <v>13</v>
       </c>
-      <c r="Z6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C7" s="1" t="s">
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="V9" t="s">
+        <v>35</v>
+      </c>
+      <c r="W9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10">
         <v>0</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
         <v>2</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="F10">
         <v>3</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="G10">
         <v>4</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="2" t="s">
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
         <v>6</v>
       </c>
-      <c r="K7" s="2">
+      <c r="J10">
+        <v>7</v>
+      </c>
+      <c r="K10">
+        <v>8</v>
+      </c>
+      <c r="L10">
+        <v>9</v>
+      </c>
+      <c r="M10">
+        <v>10</v>
+      </c>
+      <c r="N10">
+        <v>11</v>
+      </c>
+      <c r="O10">
+        <v>12</v>
+      </c>
+      <c r="P10">
+        <v>13</v>
+      </c>
+      <c r="Q10">
+        <v>14</v>
+      </c>
+      <c r="R10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P11" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="S11" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="11">
+        <v>2</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12" s="11">
+        <v>1</v>
+      </c>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="V12" t="s">
+        <v>80</v>
+      </c>
+      <c r="W12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="8">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2">
+      <c r="H14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="8">
+        <v>1</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="8">
+        <v>1</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="R14" s="14">
+        <v>2</v>
+      </c>
+      <c r="S14" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="V14" t="s">
+        <v>47</v>
+      </c>
+      <c r="W14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="11">
+        <v>2</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="11">
+        <v>1</v>
+      </c>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" s="11">
+        <v>1</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="11">
+        <v>1</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="P15" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="R15" s="11">
+        <v>1</v>
+      </c>
+      <c r="V15" t="s">
+        <v>48</v>
+      </c>
+      <c r="W15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="V16" t="s">
+        <v>41</v>
+      </c>
+      <c r="W16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>1</v>
+      </c>
+      <c r="R17" s="9">
+        <v>1</v>
+      </c>
+      <c r="V17" t="s">
+        <v>58</v>
+      </c>
+      <c r="W17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="11">
+        <v>2</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="O18" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="11">
+        <v>1</v>
+      </c>
+      <c r="R18" s="12">
+        <v>1</v>
+      </c>
+      <c r="V18" t="s">
+        <v>39</v>
+      </c>
+      <c r="W18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" s="13"/>
+      <c r="O20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="R20" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="V20" t="s">
+        <v>44</v>
+      </c>
+      <c r="W20" t="s">
+        <v>45</v>
+      </c>
+      <c r="X20" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="11">
+        <v>2</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21" s="15"/>
+      <c r="O21" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P21" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="R21" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" s="8"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P23" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="R23" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="V23" t="s">
+        <v>50</v>
+      </c>
+      <c r="W23" t="s">
+        <v>51</v>
+      </c>
+      <c r="X23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="11">
+        <v>2</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24" s="11"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P24" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="R24" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B26">
         <v>6</v>
       </c>
-      <c r="M7" s="2">
+      <c r="C26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="E26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="3"/>
+    </row>
+    <row r="27" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="4"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="6"/>
+    </row>
+    <row r="28" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28">
+        <v>6</v>
+      </c>
+      <c r="J28">
+        <v>7</v>
+      </c>
+      <c r="K28">
+        <v>8</v>
+      </c>
+      <c r="L28">
+        <v>9</v>
+      </c>
+      <c r="M28">
+        <v>10</v>
+      </c>
+      <c r="N28">
+        <v>11</v>
+      </c>
+      <c r="O28">
+        <v>12</v>
+      </c>
+      <c r="P28">
+        <v>13</v>
+      </c>
+      <c r="Q28">
         <v>14</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R7" s="3" t="s">
+      <c r="R28">
         <v>15</v>
       </c>
-      <c r="V7" t="s">
+    </row>
+    <row r="29" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="W7" t="s">
+      <c r="N29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="X7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z7" t="s">
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="3"/>
+    </row>
+    <row r="30" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="4"/>
+      <c r="D30" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="6"/>
+    </row>
+    <row r="31" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B32" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="8">
+        <v>3</v>
+      </c>
+      <c r="G32" s="8">
+        <v>6</v>
+      </c>
+      <c r="H32" s="8">
+        <v>0</v>
+      </c>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5" t="s">
+      <c r="P32" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q32" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="R32" s="9"/>
+      <c r="V32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="18">
         <v>8</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L8" s="5">
+      <c r="C33" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="11">
+        <v>1</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="5">
+        <v>1</v>
+      </c>
+      <c r="J33" s="5"/>
+      <c r="K33" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L33" s="11">
         <v>2</v>
       </c>
-      <c r="M8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="N8" s="5">
-        <v>0</v>
-      </c>
-      <c r="O8" s="5">
-        <v>7</v>
-      </c>
-      <c r="P8" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="R8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="V8" t="s">
-        <v>19</v>
-      </c>
-      <c r="W8" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="Z9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2">
-        <v>2</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="2">
-        <v>1</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="R12" s="6"/>
-    </row>
-    <row r="13" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="3"/>
-    </row>
-    <row r="15" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="6"/>
-    </row>
-    <row r="16" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="3"/>
-    </row>
-    <row r="18" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="6"/>
-    </row>
-    <row r="19" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="3"/>
-    </row>
-    <row r="21" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="6"/>
+      <c r="M33" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="11">
+        <v>1</v>
+      </c>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R33" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="V33" t="s">
+        <v>69</v>
+      </c>
+      <c r="W33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="V34" t="s">
+        <v>71</v>
+      </c>
+      <c r="W34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="V35" t="s">
+        <v>73</v>
+      </c>
+      <c r="W35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="V36" t="s">
+        <v>75</v>
+      </c>
+      <c r="W36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="V37" t="s">
+        <v>77</v>
+      </c>
+      <c r="W37" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>